--- a/Hombres.xlsx
+++ b/Hombres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="2953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="2955">
   <si>
     <t xml:space="preserve">Aamir</t>
   </si>
@@ -8879,6 +8879,12 @@
   </si>
   <si>
     <t xml:space="preserve">Samrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adetunji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek</t>
   </si>
 </sst>
 </file>
@@ -8998,13 +9004,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2953"/>
+  <dimension ref="A1:A2955"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2926" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2932" activeCellId="0" sqref="D2932"/>
+      <selection pane="topLeft" activeCell="A2955" activeCellId="0" sqref="A2955"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -23769,6 +23775,16 @@
     <row r="2953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2953" s="2" t="s">
         <v>2952</v>
+      </c>
+    </row>
+    <row r="2954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2954" s="2" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2955" s="2" t="s">
+        <v>2954</v>
       </c>
     </row>
   </sheetData>

--- a/Hombres.xlsx
+++ b/Hombres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="2955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="2960">
   <si>
     <t xml:space="preserve">Aamir</t>
   </si>
@@ -8885,6 +8885,21 @@
   </si>
   <si>
     <t xml:space="preserve">Abhishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krisztian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estanislau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everson</t>
   </si>
 </sst>
 </file>
@@ -9004,13 +9019,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2955"/>
+  <dimension ref="A1:A2960"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2926" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2955" activeCellId="0" sqref="A2955"/>
+      <selection pane="topLeft" activeCell="A2960" activeCellId="0" sqref="A2960"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -23785,6 +23800,31 @@
     <row r="2955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2955" s="2" t="s">
         <v>2954</v>
+      </c>
+    </row>
+    <row r="2956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2956" s="2" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2957" s="2" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2958" s="2" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2959" s="2" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2960" s="2" t="s">
+        <v>2959</v>
       </c>
     </row>
   </sheetData>
